--- a/专利查询和搜集/已处理/命中数据.xlsx
+++ b/专利查询和搜集/已处理/命中数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="287">
   <si>
     <t>标题</t>
   </si>
@@ -133,6 +133,9 @@
     <t xml:space="preserve">technique for aiding in inserting a plant pot into and removing it from      a plant hanger </t>
   </si>
   <si>
+    <t xml:space="preserve">deck mountable plant stand </t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/07/354/042/1.pdf</t>
   </si>
   <si>
@@ -316,6 +319,9 @@
     <t>https://pdfpiw.uspto.gov/17/662/044/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/06/578/065/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04235407</t>
   </si>
   <si>
@@ -499,6 +505,9 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04466217</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06557806</t>
+  </si>
+  <si>
     <t>4235407</t>
   </si>
   <si>
@@ -680,6 +689,9 @@
   </si>
   <si>
     <t>4466217</t>
+  </si>
+  <si>
+    <t>6557806</t>
   </si>
   <si>
     <t>png_get/4235407.png</t>
@@ -1233,7 +1245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1261,16 +1273,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1278,16 +1290,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1295,16 +1307,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1312,16 +1324,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1329,16 +1341,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1346,16 +1358,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1363,16 +1375,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1380,16 +1392,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1397,16 +1409,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1414,16 +1426,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1431,16 +1443,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1448,16 +1460,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1465,16 +1477,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1482,16 +1494,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1499,16 +1511,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E16" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1516,16 +1528,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1533,16 +1545,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1550,16 +1562,16 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E19" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1567,16 +1579,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E20" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1584,16 +1596,16 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1601,16 +1613,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E22" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1618,16 +1630,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E23" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1635,16 +1647,16 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E24" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1652,16 +1664,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E25" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1669,16 +1681,16 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1686,16 +1698,16 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D27" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E27" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1703,16 +1715,16 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E28" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1720,16 +1732,16 @@
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1737,16 +1749,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E30" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1754,16 +1766,16 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1771,16 +1783,16 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1788,16 +1800,16 @@
         <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E33" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1805,16 +1817,16 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E34" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1822,16 +1834,16 @@
         <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E35" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1839,16 +1851,16 @@
         <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E36" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1856,16 +1868,16 @@
         <v>15</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D37" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E37" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1873,16 +1885,16 @@
         <v>13</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E38" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1890,16 +1902,16 @@
         <v>13</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E39" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1907,16 +1919,16 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1924,16 +1936,16 @@
         <v>17</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E41" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1941,16 +1953,16 @@
         <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1958,16 +1970,16 @@
         <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D43" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E43" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1975,16 +1987,16 @@
         <v>20</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E44" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1992,16 +2004,16 @@
         <v>21</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D45" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E45" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2009,16 +2021,16 @@
         <v>22</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D46" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E46" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2026,16 +2038,16 @@
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E47" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2043,16 +2055,16 @@
         <v>24</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E48" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2060,16 +2072,16 @@
         <v>25</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E49" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2077,16 +2089,16 @@
         <v>26</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E50" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2094,16 +2106,16 @@
         <v>27</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E51" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2111,16 +2123,16 @@
         <v>28</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E52" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2128,16 +2140,16 @@
         <v>29</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E53" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2145,16 +2157,16 @@
         <v>30</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D54" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E54" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2162,16 +2174,16 @@
         <v>31</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D55" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E55" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2179,16 +2191,16 @@
         <v>32</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D56" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E56" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2196,16 +2208,16 @@
         <v>33</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D57" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E57" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2213,16 +2225,16 @@
         <v>34</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D58" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E58" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2230,16 +2242,16 @@
         <v>35</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E59" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2247,16 +2259,16 @@
         <v>36</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E60" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2264,16 +2276,16 @@
         <v>37</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D61" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E61" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2281,16 +2293,30 @@
         <v>38</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D62" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E62" t="s">
-        <v>282</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2417,6 +2443,8 @@
     <hyperlink ref="C61" r:id="rId120"/>
     <hyperlink ref="B62" r:id="rId121"/>
     <hyperlink ref="C62" r:id="rId122"/>
+    <hyperlink ref="B63" r:id="rId123"/>
+    <hyperlink ref="C63" r:id="rId124"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/专利查询和搜集/已处理/命中数据.xlsx
+++ b/专利查询和搜集/已处理/命中数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="282">
   <si>
     <t>标题</t>
   </si>
@@ -43,9 +43,6 @@
     <t xml:space="preserve">object hanger </t>
   </si>
   <si>
-    <t xml:space="preserve">dual plant hanger </t>
-  </si>
-  <si>
     <t xml:space="preserve">post plant hanger </t>
   </si>
   <si>
@@ -94,6 +91,9 @@
     <t xml:space="preserve">deck mounted plant hanger </t>
   </si>
   <si>
+    <t xml:space="preserve">deck mountable plant stand </t>
+  </si>
+  <si>
     <t xml:space="preserve">self watering plant hanger </t>
   </si>
   <si>
@@ -133,9 +133,6 @@
     <t xml:space="preserve">technique for aiding in inserting a plant pot into and removing it from      a plant hanger </t>
   </si>
   <si>
-    <t xml:space="preserve">deck mountable plant stand </t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/07/354/042/1.pdf</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>https://pdfpiw.uspto.gov/98/416/069/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/41/477/D06/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/82/089/049/1.pdf</t>
   </si>
   <si>
@@ -280,6 +274,9 @@
     <t>https://pdfpiw.uspto.gov/63/718/D08/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/06/578/065/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/05/969/075/1.pdf</t>
   </si>
   <si>
@@ -319,9 +316,6 @@
     <t>https://pdfpiw.uspto.gov/17/662/044/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/06/578/065/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04235407</t>
   </si>
   <si>
@@ -409,9 +403,6 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06941698</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0647741</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04908982</t>
   </si>
   <si>
@@ -466,6 +457,9 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0871863</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06557806</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=07596905</t>
   </si>
   <si>
@@ -505,9 +499,6 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04466217</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06557806</t>
-  </si>
-  <si>
     <t>4235407</t>
   </si>
   <si>
@@ -595,9 +586,6 @@
     <t>6941698</t>
   </si>
   <si>
-    <t>D647741</t>
-  </si>
-  <si>
     <t>4908982</t>
   </si>
   <si>
@@ -652,6 +640,9 @@
     <t>D871863</t>
   </si>
   <si>
+    <t>6557806</t>
+  </si>
+  <si>
     <t>7596905</t>
   </si>
   <si>
@@ -691,9 +682,6 @@
     <t>4466217</t>
   </si>
   <si>
-    <t>6557806</t>
-  </si>
-  <si>
     <t>png_get/4235407.png</t>
   </si>
   <si>
@@ -779,9 +767,6 @@
   </si>
   <si>
     <t>png_get/6941698.png</t>
-  </si>
-  <si>
-    <t>png_get/D647741.png</t>
   </si>
   <si>
     <t>png_get/4908982.png</t>
@@ -1245,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1273,16 +1258,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1290,16 +1275,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1307,16 +1292,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1324,16 +1309,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1341,16 +1326,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1358,16 +1343,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1375,16 +1360,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1392,16 +1377,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1409,16 +1394,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1426,16 +1411,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1443,16 +1428,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1460,16 +1445,16 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1477,16 +1462,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1494,16 +1479,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1511,16 +1496,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1528,16 +1513,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1545,16 +1530,16 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1562,16 +1547,16 @@
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1579,16 +1564,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1596,16 +1581,16 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E21" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1613,16 +1598,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1630,16 +1615,16 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E23" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1647,16 +1632,16 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E24" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1664,16 +1649,16 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E25" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1681,16 +1666,16 @@
         <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E26" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1698,16 +1683,16 @@
         <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1715,16 +1700,16 @@
         <v>6</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D28" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1732,16 +1717,16 @@
         <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1749,16 +1734,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E30" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1766,16 +1751,16 @@
         <v>9</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1783,16 +1768,16 @@
         <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E32" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1800,16 +1785,16 @@
         <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E33" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1817,16 +1802,16 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E34" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1834,16 +1819,16 @@
         <v>13</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E35" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1851,67 +1836,67 @@
         <v>14</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E36" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E37" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E38" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E39" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1919,16 +1904,16 @@
         <v>16</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E40" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1936,16 +1921,16 @@
         <v>17</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E41" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1953,16 +1938,16 @@
         <v>18</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E42" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1970,16 +1955,16 @@
         <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E43" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1987,16 +1972,16 @@
         <v>20</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E44" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2004,16 +1989,16 @@
         <v>21</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E45" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2021,16 +2006,16 @@
         <v>22</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E46" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2038,16 +2023,16 @@
         <v>23</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E47" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2055,16 +2040,16 @@
         <v>24</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E48" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2072,16 +2057,13 @@
         <v>25</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>211</v>
-      </c>
-      <c r="E49" t="s">
-        <v>273</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2089,16 +2071,16 @@
         <v>26</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E50" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2106,16 +2088,16 @@
         <v>27</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E51" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2123,16 +2105,16 @@
         <v>28</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E52" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2140,16 +2122,16 @@
         <v>29</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D53" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E53" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2157,16 +2139,16 @@
         <v>30</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D54" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E54" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2174,16 +2156,16 @@
         <v>31</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E55" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2191,16 +2173,16 @@
         <v>32</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E56" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2208,16 +2190,16 @@
         <v>33</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D57" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E57" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2225,16 +2207,16 @@
         <v>34</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D58" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2242,16 +2224,16 @@
         <v>35</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D59" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E59" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2259,16 +2241,16 @@
         <v>36</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D60" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2276,16 +2258,16 @@
         <v>37</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D61" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E61" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2293,30 +2275,16 @@
         <v>38</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E62" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" t="s">
-        <v>225</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2443,8 +2411,6 @@
     <hyperlink ref="C61" r:id="rId120"/>
     <hyperlink ref="B62" r:id="rId121"/>
     <hyperlink ref="C62" r:id="rId122"/>
-    <hyperlink ref="B63" r:id="rId123"/>
-    <hyperlink ref="C63" r:id="rId124"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/专利查询和搜集/已处理/命中数据.xlsx
+++ b/专利查询和搜集/已处理/命中数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="283">
   <si>
     <t>标题</t>
   </si>
@@ -46,12 +46,12 @@
     <t xml:space="preserve">post plant hanger </t>
   </si>
   <si>
+    <t xml:space="preserve">multi-plant hanger </t>
+  </si>
+  <si>
     <t xml:space="preserve">plant hanger frame </t>
   </si>
   <si>
-    <t xml:space="preserve">multi-plant hanger </t>
-  </si>
-  <si>
     <t xml:space="preserve">potted plant hanger </t>
   </si>
   <si>
@@ -85,12 +85,12 @@
     <t xml:space="preserve">wall pillar plant hanger </t>
   </si>
   <si>
+    <t xml:space="preserve">deck mounted plant hanger </t>
+  </si>
+  <si>
     <t xml:space="preserve">heart-shaped plant hanger </t>
   </si>
   <si>
-    <t xml:space="preserve">deck mounted plant hanger </t>
-  </si>
-  <si>
     <t xml:space="preserve">deck mountable plant stand </t>
   </si>
   <si>
@@ -136,99 +136,99 @@
     <t>https://pdfpiw.uspto.gov/07/354/042/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/42/135/D06/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/22/878/D08/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/02/742/D02/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/73/628/042/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/20/633/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/15/661/046/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/77/793/047/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/40/368/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/43/329/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/09/198/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/66/153/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/37/117/D04/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/65/481/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/12/509/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/74/202/050/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/46/101/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/59/526/D06/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/41/095/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/92/007/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/02/007/D03/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/14/910/D07/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/86/194/D08/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/06/224/D08/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/75/114/048/1.pdf</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/18/991/062/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/40/716/D02/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/18/991/062/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/75/114/048/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/06/224/D08/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/86/194/D08/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/14/910/D07/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/02/007/D03/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/92/007/D03/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/41/095/D03/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/59/526/D06/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/46/101/D03/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/74/202/050/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/58/712/D02/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/65/481/D03/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/12/509/D03/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/37/117/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/66/153/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/09/198/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/43/329/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/40/368/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/77/793/047/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/15/661/046/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/20/633/D04/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/73/628/042/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/02/742/D02/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/22/878/D08/1.pdf</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/42/135/D06/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/98/416/069/1.pdf</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/82/089/049/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/60/061/D05/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/55/638/044/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/60/061/D05/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/54/614/D02/1.pdf</t>
   </si>
   <si>
@@ -268,12 +268,12 @@
     <t>https://pdfpiw.uspto.gov/67/448/D03/1.pdf</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/63/718/D08/1.pdf</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/19/897/D05/1.pdf</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/63/718/D08/1.pdf</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/06/578/065/1.pdf</t>
   </si>
   <si>
@@ -319,99 +319,99 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04235407</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0613542</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0887822</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0274202</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04262873</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0463320</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04666115</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04779377</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0436840</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0432943</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0419809</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0415366</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0411737</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0348165</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0350912</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=05020274</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0310146</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0652659</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0309541</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0300792</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0300702</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0791014</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0819486</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0822406</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=04811475</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=06299118</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0271640</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=06299118</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04811475</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0822406</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0819486</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0791014</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0300702</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0300792</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0309541</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0652659</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0310146</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=05020274</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0271258</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0348165</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0350912</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0411737</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0415366</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0419809</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0432943</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0436840</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04779377</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04666115</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0463320</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=04262873</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0274202</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0887822</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0613542</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06941698</t>
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04908982</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0506160</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=04463855</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0506160</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0261454</t>
   </si>
   <si>
@@ -451,12 +451,12 @@
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0344867</t>
   </si>
   <si>
+    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0871863</t>
+  </si>
+  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=D0589719</t>
   </si>
   <si>
-    <t>https://pdfpiw.uspto.gov/.piw?Docid=D0871863</t>
-  </si>
-  <si>
     <t>https://pdfpiw.uspto.gov/.piw?Docid=06557806</t>
   </si>
   <si>
@@ -502,99 +502,99 @@
     <t>4235407</t>
   </si>
   <si>
+    <t>D613542</t>
+  </si>
+  <si>
+    <t>D887822</t>
+  </si>
+  <si>
+    <t>D274202</t>
+  </si>
+  <si>
+    <t>4262873</t>
+  </si>
+  <si>
+    <t>D463320</t>
+  </si>
+  <si>
+    <t>4666115</t>
+  </si>
+  <si>
+    <t>4779377</t>
+  </si>
+  <si>
+    <t>D436840</t>
+  </si>
+  <si>
+    <t>D432943</t>
+  </si>
+  <si>
+    <t>D419809</t>
+  </si>
+  <si>
+    <t>D415366</t>
+  </si>
+  <si>
+    <t>D411737</t>
+  </si>
+  <si>
+    <t>D348165</t>
+  </si>
+  <si>
+    <t>D350912</t>
+  </si>
+  <si>
+    <t>5020274</t>
+  </si>
+  <si>
+    <t>D310146</t>
+  </si>
+  <si>
+    <t>D652659</t>
+  </si>
+  <si>
+    <t>D309541</t>
+  </si>
+  <si>
+    <t>D300792</t>
+  </si>
+  <si>
+    <t>D300702</t>
+  </si>
+  <si>
+    <t>D791014</t>
+  </si>
+  <si>
+    <t>D819486</t>
+  </si>
+  <si>
+    <t>D822406</t>
+  </si>
+  <si>
+    <t>4811475</t>
+  </si>
+  <si>
+    <t>6299118</t>
+  </si>
+  <si>
     <t>D271640</t>
   </si>
   <si>
-    <t>6299118</t>
-  </si>
-  <si>
-    <t>4811475</t>
-  </si>
-  <si>
-    <t>D822406</t>
-  </si>
-  <si>
-    <t>D819486</t>
-  </si>
-  <si>
-    <t>D791014</t>
-  </si>
-  <si>
-    <t>D300702</t>
-  </si>
-  <si>
-    <t>D300792</t>
-  </si>
-  <si>
-    <t>D309541</t>
-  </si>
-  <si>
-    <t>D652659</t>
-  </si>
-  <si>
-    <t>D310146</t>
-  </si>
-  <si>
-    <t>5020274</t>
-  </si>
-  <si>
     <t>D271258</t>
   </si>
   <si>
-    <t>D348165</t>
-  </si>
-  <si>
-    <t>D350912</t>
-  </si>
-  <si>
-    <t>D411737</t>
-  </si>
-  <si>
-    <t>D415366</t>
-  </si>
-  <si>
-    <t>D419809</t>
-  </si>
-  <si>
-    <t>D432943</t>
-  </si>
-  <si>
-    <t>D436840</t>
-  </si>
-  <si>
-    <t>4779377</t>
-  </si>
-  <si>
-    <t>4666115</t>
-  </si>
-  <si>
-    <t>D463320</t>
-  </si>
-  <si>
-    <t>4262873</t>
-  </si>
-  <si>
-    <t>D274202</t>
-  </si>
-  <si>
-    <t>D887822</t>
-  </si>
-  <si>
-    <t>D613542</t>
-  </si>
-  <si>
     <t>6941698</t>
   </si>
   <si>
     <t>4908982</t>
   </si>
   <si>
+    <t>D506160</t>
+  </si>
+  <si>
     <t>4463855</t>
   </si>
   <si>
-    <t>D506160</t>
-  </si>
-  <si>
     <t>D261454</t>
   </si>
   <si>
@@ -634,12 +634,12 @@
     <t>D344867</t>
   </si>
   <si>
+    <t>D871863</t>
+  </si>
+  <si>
     <t>D589719</t>
   </si>
   <si>
-    <t>D871863</t>
-  </si>
-  <si>
     <t>6557806</t>
   </si>
   <si>
@@ -685,99 +685,99 @@
     <t>png_get/4235407.png</t>
   </si>
   <si>
+    <t>png_get/D613542.png</t>
+  </si>
+  <si>
+    <t>png_get/D887822.png</t>
+  </si>
+  <si>
+    <t>png_get/D274202.png</t>
+  </si>
+  <si>
+    <t>png_get/4262873.png</t>
+  </si>
+  <si>
+    <t>png_get/D463320.png</t>
+  </si>
+  <si>
+    <t>png_get/4666115.png</t>
+  </si>
+  <si>
+    <t>png_get/4779377.png</t>
+  </si>
+  <si>
+    <t>png_get/D436840.png</t>
+  </si>
+  <si>
+    <t>png_get/D432943.png</t>
+  </si>
+  <si>
+    <t>png_get/D419809.png</t>
+  </si>
+  <si>
+    <t>png_get/D415366.png</t>
+  </si>
+  <si>
+    <t>png_get/D411737.png</t>
+  </si>
+  <si>
+    <t>png_get/D348165.png</t>
+  </si>
+  <si>
+    <t>png_get/D350912.png</t>
+  </si>
+  <si>
+    <t>png_get/5020274.png</t>
+  </si>
+  <si>
+    <t>png_get/D310146.png</t>
+  </si>
+  <si>
+    <t>png_get/D652659.png</t>
+  </si>
+  <si>
+    <t>png_get/D309541.png</t>
+  </si>
+  <si>
+    <t>png_get/D300792.png</t>
+  </si>
+  <si>
+    <t>png_get/D300702.png</t>
+  </si>
+  <si>
+    <t>png_get/D791014.png</t>
+  </si>
+  <si>
+    <t>png_get/D819486.png</t>
+  </si>
+  <si>
+    <t>png_get/D822406.png</t>
+  </si>
+  <si>
+    <t>png_get/4811475.png</t>
+  </si>
+  <si>
+    <t>png_get/6299118.png</t>
+  </si>
+  <si>
     <t>png_get/D271640.png</t>
   </si>
   <si>
-    <t>png_get/6299118.png</t>
-  </si>
-  <si>
-    <t>png_get/4811475.png</t>
-  </si>
-  <si>
-    <t>png_get/D822406.png</t>
-  </si>
-  <si>
-    <t>png_get/D819486.png</t>
-  </si>
-  <si>
-    <t>png_get/D791014.png</t>
-  </si>
-  <si>
-    <t>png_get/D300702.png</t>
-  </si>
-  <si>
-    <t>png_get/D300792.png</t>
-  </si>
-  <si>
-    <t>png_get/D309541.png</t>
-  </si>
-  <si>
-    <t>png_get/D652659.png</t>
-  </si>
-  <si>
-    <t>png_get/D310146.png</t>
-  </si>
-  <si>
-    <t>png_get/5020274.png</t>
-  </si>
-  <si>
     <t>png_get/D271258.png</t>
   </si>
   <si>
-    <t>png_get/D348165.png</t>
-  </si>
-  <si>
-    <t>png_get/D350912.png</t>
-  </si>
-  <si>
-    <t>png_get/D411737.png</t>
-  </si>
-  <si>
-    <t>png_get/D415366.png</t>
-  </si>
-  <si>
-    <t>png_get/D419809.png</t>
-  </si>
-  <si>
-    <t>png_get/D432943.png</t>
-  </si>
-  <si>
-    <t>png_get/D436840.png</t>
-  </si>
-  <si>
-    <t>png_get/4779377.png</t>
-  </si>
-  <si>
-    <t>png_get/4666115.png</t>
-  </si>
-  <si>
-    <t>png_get/D463320.png</t>
-  </si>
-  <si>
-    <t>png_get/4262873.png</t>
-  </si>
-  <si>
-    <t>png_get/D274202.png</t>
-  </si>
-  <si>
-    <t>png_get/D887822.png</t>
-  </si>
-  <si>
-    <t>png_get/D613542.png</t>
-  </si>
-  <si>
     <t>png_get/6941698.png</t>
   </si>
   <si>
     <t>png_get/4908982.png</t>
   </si>
   <si>
+    <t>png_get/D506160.png</t>
+  </si>
+  <si>
     <t>png_get/4463855.png</t>
   </si>
   <si>
-    <t>png_get/D506160.png</t>
-  </si>
-  <si>
     <t>png_get/D261454.png</t>
   </si>
   <si>
@@ -817,10 +817,13 @@
     <t>png_get/D344867.png</t>
   </si>
   <si>
+    <t>png_get/D871863.png</t>
+  </si>
+  <si>
     <t>png_get/D589719.png</t>
   </si>
   <si>
-    <t>png_get/D871863.png</t>
+    <t>png_get/6557806.png</t>
   </si>
   <si>
     <t>png_get/7596905.png</t>
@@ -1289,7 +1292,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>41</v>
@@ -1680,7 +1683,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>64</v>
@@ -2065,6 +2068,9 @@
       <c r="D49" t="s">
         <v>208</v>
       </c>
+      <c r="E49" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
@@ -2080,7 +2086,7 @@
         <v>209</v>
       </c>
       <c r="E50" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2097,7 +2103,7 @@
         <v>210</v>
       </c>
       <c r="E51" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2114,7 +2120,7 @@
         <v>211</v>
       </c>
       <c r="E52" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2131,7 +2137,7 @@
         <v>212</v>
       </c>
       <c r="E53" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2148,7 +2154,7 @@
         <v>213</v>
       </c>
       <c r="E54" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2165,7 +2171,7 @@
         <v>214</v>
       </c>
       <c r="E55" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2182,7 +2188,7 @@
         <v>215</v>
       </c>
       <c r="E56" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2199,7 +2205,7 @@
         <v>216</v>
       </c>
       <c r="E57" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2216,7 +2222,7 @@
         <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2233,7 +2239,7 @@
         <v>218</v>
       </c>
       <c r="E59" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2250,7 +2256,7 @@
         <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2267,7 +2273,7 @@
         <v>220</v>
       </c>
       <c r="E61" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2284,7 +2290,7 @@
         <v>221</v>
       </c>
       <c r="E62" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
